--- a/data_reference/statistic_id266210_google-play_-number-of-available-apps-2009-2019.xlsx
+++ b/data_reference/statistic_id266210_google-play_-number-of-available-apps-2009-2019.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\SmartPhoneReact\data_reference\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FC32D-0823-46FC-B26F-7BF27DC63C3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="21600" windowHeight="14715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Statistic as Excel data file</t>
   </si>
@@ -206,16 +219,25 @@
   </si>
   <si>
     <t>Sep '19</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -234,16 +256,21 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -258,135 +285,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+  <cellStyles count="7">
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -709,38 +657,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="70.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="12.75">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="12.75">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="12.75">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="12.75">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="12.75">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -756,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="12.75">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -764,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="12.75">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -772,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="12.75">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -780,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="12.75">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -788,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="12.75">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -796,7 +744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="12.75">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -804,7 +752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="12.75">
+    <row r="18" spans="2:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -812,12 +760,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="12.75">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="12.75">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -825,7 +773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="12.75">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
@@ -833,7 +781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="12.75">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -841,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="12.75">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
@@ -851,8 +799,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" location="Data!A1" display="Access data"/>
-    <hyperlink ref="C25" r:id="rId1" display="266210"/>
+    <hyperlink ref="B5" location="Data!A1" display="Access data" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -860,296 +808,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="B3:D39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.714285714286" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="12.75">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="12.75">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
+        <f>SUM(G6/1000)</f>
+        <v>16</v>
+      </c>
+      <c r="G6" s="7">
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="12.75">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
+        <f>SUM(G7/1000)</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="12.75">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
+        <f>SUM(G8/1000)</f>
+        <v>38</v>
+      </c>
+      <c r="G8" s="7">
         <v>38000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="12.75">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
+        <f>SUM(G9/1000)</f>
+        <v>70</v>
+      </c>
+      <c r="G9" s="7">
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="12.75">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
+        <f>SUM(G10/1000)</f>
+        <v>100</v>
+      </c>
+      <c r="G10" s="7">
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="12.75">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
+        <f>SUM(G11/1000)</f>
+        <v>200</v>
+      </c>
+      <c r="G11" s="7">
         <v>200000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="12.75">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
+        <f>SUM(G12/1000)</f>
+        <v>250</v>
+      </c>
+      <c r="G12" s="7">
         <v>250000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="12.75">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
+        <f>SUM(G13/1000)</f>
+        <v>300</v>
+      </c>
+      <c r="G13" s="7">
         <v>300000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="12.75">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
+        <f>SUM(G14/1000)</f>
+        <v>400</v>
+      </c>
+      <c r="G14" s="7">
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="12.75">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
+        <f>SUM(G15/1000)</f>
+        <v>450</v>
+      </c>
+      <c r="G15" s="7">
         <v>450000</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="12.75">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
+        <f>SUM(G16/1000)</f>
+        <v>500</v>
+      </c>
+      <c r="G16" s="7">
         <v>500000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="12.75">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
+        <f>SUM(G17/1000)</f>
+        <v>600</v>
+      </c>
+      <c r="G17" s="7">
         <v>600000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12.75">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
+        <f>SUM(G18/1000)</f>
+        <v>675</v>
+      </c>
+      <c r="G18" s="7">
         <v>675000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12.75">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
+        <f>SUM(G19/1000)</f>
+        <v>700</v>
+      </c>
+      <c r="G19" s="7">
         <v>700000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="12.75">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
+        <f>SUM(G20/1000)</f>
+        <v>850</v>
+      </c>
+      <c r="G20" s="7">
         <v>850000</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="12.75">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
+        <f>SUM(G21/1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="G21" s="7">
         <v>1000000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="12.75">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
+        <f>SUM(G22/1000)</f>
+        <v>1300</v>
+      </c>
+      <c r="G22" s="7">
         <v>1300000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="12.75">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
+        <f>SUM(G23/1000)</f>
+        <v>1400</v>
+      </c>
+      <c r="G23" s="7">
         <v>1400000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="12.75">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
+        <f>SUM(G24/1000)</f>
+        <v>1600</v>
+      </c>
+      <c r="G24" s="7">
         <v>1600000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="12.75">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
+        <f>SUM(G25/1000)</f>
+        <v>1800</v>
+      </c>
+      <c r="G25" s="7">
         <v>1800000</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="12.75">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
+        <f>SUM(G26/1000)</f>
+        <v>2000</v>
+      </c>
+      <c r="G26" s="7">
         <v>2000000</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="12.75">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
+        <f>SUM(G27/1000)</f>
+        <v>2400</v>
+      </c>
+      <c r="G27" s="7">
         <v>2400000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="12.75">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
+        <f>SUM(G28/1000)</f>
+        <v>2600</v>
+      </c>
+      <c r="G28" s="7">
         <v>2600000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="12.75">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
+        <f>SUM(G29/1000)</f>
+        <v>2800</v>
+      </c>
+      <c r="G29" s="7">
         <v>2800000</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="12.75">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
+        <f>SUM(G30/1000)</f>
+        <v>3000</v>
+      </c>
+      <c r="G30" s="7">
         <v>3000000</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="12.75">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
+        <f>SUM(G31/1000)</f>
+        <v>3300</v>
+      </c>
+      <c r="G31" s="7">
         <v>3300000</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="12.75">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
+        <f>SUM(G32/1000)</f>
+        <v>3500</v>
+      </c>
+      <c r="G32" s="7">
         <v>3500000</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="12.75">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
+        <f>SUM(G33/1000)</f>
+        <v>3600</v>
+      </c>
+      <c r="G33" s="7">
         <v>3600000</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="12.75">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
+        <f>SUM(G34/1000)</f>
+        <v>3300</v>
+      </c>
+      <c r="G34" s="7">
         <v>3300000</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="12.75">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
+        <f>SUM(G35/1000)</f>
+        <v>2600</v>
+      </c>
+      <c r="G35" s="7">
         <v>2600000</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="12.75">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
+        <f>SUM(G36/1000)</f>
+        <v>2600</v>
+      </c>
+      <c r="G36" s="7">
         <v>2600000</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="12.75">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
+        <f>SUM(G37/1000)</f>
+        <v>2600</v>
+      </c>
+      <c r="G37" s="7">
         <v>2600000</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="12.75">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38">
+        <f>SUM(G38/1000)</f>
+        <v>2700</v>
+      </c>
+      <c r="G38" s="7">
         <v>2700000</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="12.75">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
+        <f>SUM(G39/1000)</f>
+        <v>2800</v>
+      </c>
+      <c r="G39" s="7">
         <v>2800000</v>
       </c>
     </row>
